--- a/public/DBM_PLANTILLA.xlsx
+++ b/public/DBM_PLANTILLA.xlsx
@@ -119,11 +119,6 @@
     <t>ALEXANDER T. PIMENTEL</t>
   </si>
   <si>
-    <t>FY 2020 Amount
-(LBC 121)
-01-24-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">FY 2021 
 Amount
 </t>
@@ -145,6 +140,9 @@
   </si>
   <si>
     <t>SG / Step</t>
+  </si>
+  <si>
+    <t>FY 2020 Amount</t>
   </si>
 </sst>
 </file>
@@ -470,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,111 +563,168 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -693,66 +748,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1065,7 @@
     <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="25" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="32" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" style="26" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" style="26" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="27" customWidth="1"/>
@@ -1088,33 +1083,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
+      <c r="C3" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>
@@ -1131,210 +1126,210 @@
     </row>
     <row r="8" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="90" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="69" t="s">
+      <c r="D9" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="69" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="88" t="s">
-        <v>36</v>
+      <c r="M9" s="72" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="89"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="81"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="89"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="81"/>
       <c r="K12" s="35"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="89"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="78" t="s">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="J13" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="89"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="81" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="89"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="81" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="89"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58" t="s">
+      <c r="F16" s="54"/>
+      <c r="G16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="59" t="s">
+      <c r="I16" s="83"/>
+      <c r="J16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62" t="s">
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="53">
+      <c r="I17" s="46"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="51">
         <v>7973.3499999999995</v>
       </c>
       <c r="L17" s="24">
         <f t="shared" ref="L17" si="0">ROUND(K17,0)</f>
         <v>7973</v>
       </c>
-      <c r="M17" s="52"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="99"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="102"/>
+      <c r="E18" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="85"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="87"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,14 +1383,14 @@
       <c r="D22" s="34"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="H22" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="H22" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" s="18" t="s">
@@ -1404,14 +1399,14 @@
       <c r="D23" s="34"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
@@ -1531,6 +1526,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A9:B14"/>
+    <mergeCell ref="E9:G12"/>
+    <mergeCell ref="H9:J12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="H22:M22"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="J1:M1"/>
@@ -1543,13 +1545,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A9:B14"/>
-    <mergeCell ref="E9:G12"/>
-    <mergeCell ref="H9:J12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="258" scale="90" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
